--- a/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
+++ b/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
+++ b/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,243 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014279</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富北交所创新精选两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2703</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.61</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014269</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2115</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014294</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方北交所精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014280</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富北交所创新精选两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>65.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014270</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="D3" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1362,64 +1184,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.61</v>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
+++ b/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>3.61</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -515,6 +532,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,7 +2087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
+++ b/数据整理/stocks/A股/北交所/835368-连城数控.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>5.95</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>3.61</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -532,6 +549,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016308</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1423,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2087,7 +2882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
